--- a/SchedulingData/static4/pso/scheduling1_18.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_18.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>53.84</v>
+        <v>77.3</v>
       </c>
       <c r="E2" t="n">
-        <v>27.296</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>77.3</v>
       </c>
       <c r="D3" t="n">
-        <v>43.1</v>
+        <v>142.46</v>
       </c>
       <c r="E3" t="n">
-        <v>26.88</v>
+        <v>20.544</v>
       </c>
     </row>
     <row r="4">
@@ -504,17 +504,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>32.7</v>
+        <v>48.84</v>
       </c>
       <c r="E4" t="n">
-        <v>27.92</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="5">
@@ -523,55 +523,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>39.1</v>
+        <v>43.1</v>
       </c>
       <c r="E5" t="n">
-        <v>27.28</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>53.84</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>124.56</v>
+        <v>38.2</v>
       </c>
       <c r="E6" t="n">
-        <v>21.864</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43.1</v>
+        <v>48.84</v>
       </c>
       <c r="D7" t="n">
-        <v>109.14</v>
+        <v>127.14</v>
       </c>
       <c r="E7" t="n">
-        <v>22.876</v>
+        <v>21.596</v>
       </c>
     </row>
     <row r="8">
@@ -580,93 +580,93 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>109.14</v>
+        <v>142.46</v>
       </c>
       <c r="D8" t="n">
-        <v>175.74</v>
+        <v>196.38</v>
       </c>
       <c r="E8" t="n">
-        <v>17.836</v>
+        <v>17.772</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32.7</v>
+        <v>43.1</v>
       </c>
       <c r="D9" t="n">
-        <v>111.1</v>
+        <v>120.42</v>
       </c>
       <c r="E9" t="n">
-        <v>22.22</v>
+        <v>23.228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>124.56</v>
+        <v>38.2</v>
       </c>
       <c r="D10" t="n">
-        <v>198.86</v>
+        <v>80.3</v>
       </c>
       <c r="E10" t="n">
-        <v>16.544</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>198.86</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>259.02</v>
+        <v>71.12</v>
       </c>
       <c r="E11" t="n">
-        <v>11.168</v>
+        <v>24.568</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>39.1</v>
+        <v>127.14</v>
       </c>
       <c r="D12" t="n">
-        <v>90</v>
+        <v>228.14</v>
       </c>
       <c r="E12" t="n">
-        <v>23.32</v>
+        <v>18.076</v>
       </c>
     </row>
     <row r="13">
@@ -675,36 +675,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>90</v>
+        <v>120.42</v>
       </c>
       <c r="D13" t="n">
-        <v>175.9</v>
+        <v>168.22</v>
       </c>
       <c r="E13" t="n">
-        <v>19.8</v>
+        <v>20.588</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>55.46</v>
+        <v>49.1</v>
       </c>
       <c r="E14" t="n">
-        <v>25.644</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="15">
@@ -713,264 +713,264 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>55.46</v>
+        <v>80.3</v>
       </c>
       <c r="D15" t="n">
-        <v>113.52</v>
+        <v>141.24</v>
       </c>
       <c r="E15" t="n">
-        <v>21.948</v>
+        <v>20.816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>259.02</v>
+        <v>71.12</v>
       </c>
       <c r="D16" t="n">
-        <v>312.94</v>
+        <v>137.26</v>
       </c>
       <c r="E16" t="n">
-        <v>8.396000000000001</v>
+        <v>20.564</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>113.52</v>
+        <v>137.26</v>
       </c>
       <c r="D17" t="n">
-        <v>163.22</v>
+        <v>188.5</v>
       </c>
       <c r="E17" t="n">
-        <v>19.108</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>175.74</v>
+        <v>49.1</v>
       </c>
       <c r="D18" t="n">
-        <v>231.68</v>
+        <v>109.06</v>
       </c>
       <c r="E18" t="n">
-        <v>14.872</v>
+        <v>22.924</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>109.06</v>
       </c>
       <c r="D19" t="n">
-        <v>96.09999999999999</v>
+        <v>167.12</v>
       </c>
       <c r="E19" t="n">
-        <v>26.52</v>
+        <v>19.228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>175.9</v>
+        <v>167.12</v>
       </c>
       <c r="D20" t="n">
-        <v>250.32</v>
+        <v>216.82</v>
       </c>
       <c r="E20" t="n">
-        <v>16.968</v>
+        <v>16.388</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>231.68</v>
+        <v>216.82</v>
       </c>
       <c r="D21" t="n">
-        <v>308.58</v>
+        <v>273.92</v>
       </c>
       <c r="E21" t="n">
-        <v>10.792</v>
+        <v>13.308</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>111.1</v>
+        <v>188.5</v>
       </c>
       <c r="D22" t="n">
-        <v>183.8</v>
+        <v>274.04</v>
       </c>
       <c r="E22" t="n">
-        <v>18.58</v>
+        <v>14.096</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>96.09999999999999</v>
+        <v>141.24</v>
       </c>
       <c r="D23" t="n">
-        <v>139.02</v>
+        <v>207.94</v>
       </c>
       <c r="E23" t="n">
-        <v>22.868</v>
+        <v>15.776</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>139.02</v>
+        <v>273.92</v>
       </c>
       <c r="D24" t="n">
-        <v>190.46</v>
+        <v>326.22</v>
       </c>
       <c r="E24" t="n">
-        <v>19.364</v>
+        <v>10.188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>183.8</v>
+        <v>274.04</v>
       </c>
       <c r="D25" t="n">
-        <v>231.2</v>
+        <v>330.4</v>
       </c>
       <c r="E25" t="n">
-        <v>15.46</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>312.94</v>
+        <v>228.14</v>
       </c>
       <c r="D26" t="n">
-        <v>365.54</v>
+        <v>274.34</v>
       </c>
       <c r="E26" t="n">
-        <v>5.276</v>
+        <v>14.596</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>308.58</v>
+        <v>168.22</v>
       </c>
       <c r="D27" t="n">
-        <v>373.9</v>
+        <v>246.54</v>
       </c>
       <c r="E27" t="n">
-        <v>7.36</v>
+        <v>16.376</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>250.32</v>
+        <v>274.34</v>
       </c>
       <c r="D28" t="n">
-        <v>309.84</v>
+        <v>338.76</v>
       </c>
       <c r="E28" t="n">
-        <v>14.636</v>
+        <v>11.764</v>
       </c>
     </row>
     <row r="29">
@@ -979,17 +979,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>163.22</v>
+        <v>207.94</v>
       </c>
       <c r="D29" t="n">
-        <v>214.36</v>
+        <v>265.64</v>
       </c>
       <c r="E29" t="n">
-        <v>15.124</v>
+        <v>12.136</v>
       </c>
     </row>
     <row r="30">
@@ -998,55 +998,55 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>214.36</v>
+        <v>265.64</v>
       </c>
       <c r="D30" t="n">
-        <v>267.78</v>
+        <v>326.44</v>
       </c>
       <c r="E30" t="n">
-        <v>10.912</v>
+        <v>8.176</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>267.78</v>
+        <v>196.38</v>
       </c>
       <c r="D31" t="n">
-        <v>330.38</v>
+        <v>280.78</v>
       </c>
       <c r="E31" t="n">
-        <v>8.272</v>
+        <v>12.452</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>190.46</v>
+        <v>246.54</v>
       </c>
       <c r="D32" t="n">
-        <v>246.32</v>
+        <v>281.16</v>
       </c>
       <c r="E32" t="n">
-        <v>16.868</v>
+        <v>14.044</v>
       </c>
     </row>
     <row r="33">
@@ -1055,17 +1055,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>309.84</v>
+        <v>281.16</v>
       </c>
       <c r="D33" t="n">
-        <v>372.04</v>
+        <v>346.38</v>
       </c>
       <c r="E33" t="n">
-        <v>11.556</v>
+        <v>10.612</v>
       </c>
     </row>
   </sheetData>
